--- a/WIP/Documents/Test/test view point/UJD_VN_TestViewpoint_Common Module (Search)_v1.0_EN.xlsx
+++ b/WIP/Documents/Test/test view point/UJD_VN_TestViewpoint_Common Module (Search)_v1.0_EN.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone Project\SVN\WIP\Documents\Test\test view point\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="1"/>
   </bookViews>
@@ -482,7 +487,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1024,9 +1029,6 @@
     <t>Input information  in "Searcharea" textbox</t>
   </si>
   <si>
-    <t>Can type max 200  characters</t>
-  </si>
-  <si>
     <t>SearchOption</t>
   </si>
   <si>
@@ -1168,6 +1170,9 @@
   </si>
   <si>
     <t>Word that user input is displayed and user cannot input more than 255 characters</t>
+  </si>
+  <si>
+    <t>Can type max 255  characters</t>
   </si>
 </sst>
 </file>
@@ -3164,6 +3169,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3181,27 +3207,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6109,7 +6114,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6144,7 +6149,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6375,14 +6380,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6397,12 +6402,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6414,12 +6419,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6428,15 +6433,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6445,11 +6450,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="111"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6472,10 +6477,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="107"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6493,10 +6498,10 @@
       <c r="B10" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="103"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6510,8 +6515,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6519,8 +6524,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="105"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6528,8 +6533,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6537,8 +6542,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6546,8 +6551,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6555,8 +6560,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6564,12 +6569,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6577,6 +6576,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6592,8 +6597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A29" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6814,7 +6819,7 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1" ht="19.5" customHeight="1">
@@ -6844,7 +6849,7 @@
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6878,7 +6883,7 @@
         <v>145</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="117" customHeight="1">
@@ -6891,7 +6896,7 @@
       <c r="E14" s="56"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>35</v>
@@ -6903,10 +6908,10 @@
         <v>37</v>
       </c>
       <c r="K14" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" s="62" t="s">
         <v>148</v>
-      </c>
-      <c r="L14" s="62" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="44" customFormat="1" ht="32.25" customHeight="1">
@@ -6919,7 +6924,7 @@
       <c r="E15" s="64"/>
       <c r="F15" s="63"/>
       <c r="G15" s="63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>35</v>
@@ -6931,10 +6936,10 @@
         <v>37</v>
       </c>
       <c r="K15" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" s="56" t="s">
         <v>151</v>
-      </c>
-      <c r="L15" s="56" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="44" customFormat="1" ht="18.75" customHeight="1">
@@ -6946,7 +6951,7 @@
       <c r="D16" s="60"/>
       <c r="E16" s="61"/>
       <c r="F16" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
@@ -6980,7 +6985,7 @@
         <v>145</v>
       </c>
       <c r="L17" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1" ht="27" customHeight="1">
@@ -6993,7 +6998,7 @@
       <c r="E18" s="56"/>
       <c r="F18" s="62"/>
       <c r="G18" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>35</v>
@@ -7005,10 +7010,10 @@
         <v>37</v>
       </c>
       <c r="K18" s="56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L18" s="62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="44" customFormat="1" ht="69" customHeight="1">
@@ -7021,7 +7026,7 @@
       <c r="E19" s="64"/>
       <c r="F19" s="63"/>
       <c r="G19" s="63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H19" s="49" t="s">
         <v>35</v>
@@ -7033,22 +7038,22 @@
         <v>37</v>
       </c>
       <c r="K19" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L19" s="59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="44" customFormat="1" ht="39" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="63"/>
       <c r="F20" s="51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G20" s="52"/>
       <c r="H20" s="52"/>
@@ -7061,7 +7066,7 @@
       <c r="A21" s="47"/>
       <c r="B21" s="48"/>
       <c r="C21" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="63"/>
@@ -7082,20 +7087,20 @@
         <v>145</v>
       </c>
       <c r="L21" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="44" customFormat="1" ht="29.25" customHeight="1">
       <c r="A22" s="47"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D22" s="49"/>
       <c r="E22" s="63"/>
       <c r="F22" s="56"/>
       <c r="G22" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H22" s="49" t="s">
         <v>35</v>
@@ -7107,23 +7112,23 @@
         <v>37</v>
       </c>
       <c r="K22" s="56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L22" s="62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="44" customFormat="1" ht="78.75" customHeight="1">
       <c r="A23" s="47"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="63"/>
       <c r="F23" s="56"/>
       <c r="G23" s="63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H23" s="49" t="s">
         <v>35</v>
@@ -7135,22 +7140,22 @@
         <v>37</v>
       </c>
       <c r="K23" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L23" s="59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
       <c r="A24" s="47"/>
       <c r="B24" s="48"/>
       <c r="C24" s="48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D24" s="49"/>
       <c r="E24" s="63"/>
       <c r="F24" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G24" s="52"/>
       <c r="H24" s="52"/>
@@ -7163,7 +7168,7 @@
       <c r="A25" s="47"/>
       <c r="B25" s="48"/>
       <c r="C25" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="63"/>
@@ -7184,20 +7189,20 @@
         <v>145</v>
       </c>
       <c r="L25" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="44" customFormat="1" ht="24.75" customHeight="1">
       <c r="A26" s="47"/>
       <c r="B26" s="48"/>
       <c r="C26" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D26" s="49"/>
       <c r="E26" s="63"/>
       <c r="F26" s="56"/>
       <c r="G26" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H26" s="49" t="s">
         <v>35</v>
@@ -7209,23 +7214,23 @@
         <v>37</v>
       </c>
       <c r="K26" s="56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L26" s="62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="44" customFormat="1" ht="78" customHeight="1">
       <c r="A27" s="47"/>
       <c r="B27" s="48"/>
       <c r="C27" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D27" s="49"/>
       <c r="E27" s="63"/>
       <c r="F27" s="56"/>
       <c r="G27" s="63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H27" s="49" t="s">
         <v>35</v>
@@ -7237,22 +7242,22 @@
         <v>37</v>
       </c>
       <c r="K27" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L27" s="59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="44" customFormat="1" ht="30.75" customHeight="1">
       <c r="A28" s="47"/>
       <c r="B28" s="48"/>
       <c r="C28" s="48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D28" s="49"/>
       <c r="E28" s="63"/>
       <c r="F28" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G28" s="52"/>
       <c r="H28" s="52"/>
@@ -7265,7 +7270,7 @@
       <c r="A29" s="47"/>
       <c r="B29" s="48"/>
       <c r="C29" s="48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D29" s="49"/>
       <c r="E29" s="63"/>
@@ -7286,20 +7291,20 @@
         <v>145</v>
       </c>
       <c r="L29" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="44" customFormat="1" ht="33.75" customHeight="1">
       <c r="A30" s="47"/>
       <c r="B30" s="48"/>
       <c r="C30" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="63"/>
       <c r="F30" s="56"/>
       <c r="G30" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H30" s="49" t="s">
         <v>35</v>
@@ -7311,23 +7316,23 @@
         <v>37</v>
       </c>
       <c r="K30" s="56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L30" s="62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="44" customFormat="1" ht="107.25" customHeight="1">
       <c r="A31" s="47"/>
       <c r="B31" s="48"/>
       <c r="C31" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D31" s="49"/>
       <c r="E31" s="63"/>
       <c r="F31" s="56"/>
       <c r="G31" s="63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H31" s="49" t="s">
         <v>35</v>
@@ -7339,22 +7344,22 @@
         <v>37</v>
       </c>
       <c r="K31" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L31" s="59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="44" customFormat="1" ht="27" customHeight="1">
       <c r="A32" s="47"/>
       <c r="B32" s="48"/>
       <c r="C32" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D32" s="49"/>
       <c r="E32" s="63"/>
       <c r="F32" s="51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G32" s="52"/>
       <c r="H32" s="52"/>
@@ -7367,7 +7372,7 @@
       <c r="A33" s="47"/>
       <c r="B33" s="48"/>
       <c r="C33" s="48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D33" s="49"/>
       <c r="E33" s="63"/>
@@ -7388,20 +7393,20 @@
         <v>145</v>
       </c>
       <c r="L33" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="44" customFormat="1" ht="34.5" customHeight="1">
       <c r="A34" s="47"/>
       <c r="B34" s="48"/>
       <c r="C34" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D34" s="49"/>
       <c r="E34" s="63"/>
       <c r="F34" s="56"/>
       <c r="G34" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H34" s="49" t="s">
         <v>35</v>
@@ -7413,23 +7418,23 @@
         <v>37</v>
       </c>
       <c r="K34" s="56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L34" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="44" customFormat="1" ht="67.5">
       <c r="A35" s="47"/>
       <c r="B35" s="48"/>
       <c r="C35" s="48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D35" s="49"/>
       <c r="E35" s="63"/>
       <c r="F35" s="56"/>
       <c r="G35" s="63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H35" s="49" t="s">
         <v>35</v>
@@ -7441,10 +7446,10 @@
         <v>37</v>
       </c>
       <c r="K35" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L35" s="59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="44" customFormat="1">
